--- a/Data/CoursedistributionOfHoursSpend.xlsx
+++ b/Data/CoursedistributionOfHoursSpend.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1-4 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Informatics and Analytics Vocabulary</t>
+    <t xml:space="preserve">Health Informatics</t>
   </si>
   <si>
     <t xml:space="preserve">Python</t>
